--- a/利润表/688063.xlsx
+++ b/利润表/688063.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>SECUCODE</t>
   </si>
@@ -160,12 +160,18 @@
     <t>688063</t>
   </si>
   <si>
+    <t>016043</t>
+  </si>
+  <si>
     <t>10431951</t>
   </si>
   <si>
     <t>派能科技</t>
   </si>
   <si>
+    <t>机械行业</t>
+  </si>
+  <si>
     <t>kcb</t>
   </si>
   <si>
@@ -175,7 +181,7 @@
     <t>069001001006</t>
   </si>
   <si>
-    <t>002</t>
+    <t>004</t>
   </si>
   <si>
     <t>001</t>
@@ -187,7 +193,7 @@
     <t>2020-12-10 00:00:00</t>
   </si>
   <si>
-    <t>2020-06-30 00:00:00</t>
+    <t>2020-09-30 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -698,74 +704,95 @@
       <c r="B2" t="s">
         <v>47</v>
       </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O2">
-        <v>123530774.88</v>
+        <v>196713958.54</v>
       </c>
       <c r="P2">
-        <v>494606220.74</v>
+        <v>808442038.52</v>
       </c>
       <c r="Q2">
-        <v>344920639.83</v>
+        <v>575638543.4</v>
+      </c>
+      <c r="R2">
+        <v>48.4023409968</v>
       </c>
       <c r="S2">
-        <v>277012678.26</v>
+        <v>444100544.68</v>
       </c>
       <c r="T2">
-        <v>277012678.26</v>
+        <v>444100544.68</v>
+      </c>
+      <c r="U2">
+        <v>41.6192724396</v>
       </c>
       <c r="V2">
-        <v>16430139.25</v>
+        <v>24609662.7</v>
       </c>
       <c r="W2">
-        <v>21485922.61</v>
+        <v>36130458.7</v>
       </c>
       <c r="X2">
-        <v>-1564916.87</v>
+        <v>13691856.66</v>
       </c>
       <c r="Y2">
-        <v>141941697.98</v>
+        <v>225200812.13</v>
       </c>
       <c r="Z2">
-        <v>141510189.61</v>
+        <v>224678396.85</v>
       </c>
       <c r="AA2">
-        <v>17979414.73</v>
+        <v>27964438.31</v>
       </c>
       <c r="AG2">
-        <v>1694018.85</v>
+        <v>2933428.76</v>
+      </c>
+      <c r="AP2">
+        <v>70.63989011850001</v>
+      </c>
+      <c r="AQ2">
+        <v>136.062269035916</v>
+      </c>
+      <c r="AR2">
+        <v>178.5</v>
       </c>
       <c r="AS2">
-        <v>122586674.88</v>
+        <v>194152768.13</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688063.xlsx
+++ b/利润表/688063.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>196713958.54</v>
+        <v>144114184.41</v>
       </c>
       <c r="P2" t="n">
-        <v>808442038.52</v>
+        <v>819849198.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>575638543.4</v>
+        <v>656793789.01</v>
       </c>
       <c r="R2" t="n">
-        <v>48.4023409968</v>
+        <v>79.3597808272</v>
       </c>
       <c r="S2" t="n">
-        <v>444100544.68</v>
+        <v>516249790.91</v>
       </c>
       <c r="T2" t="n">
-        <v>444100544.68</v>
+        <v>516249790.91</v>
       </c>
       <c r="U2" t="n">
-        <v>41.6192724396</v>
+        <v>73.77720758309999</v>
       </c>
       <c r="V2" t="n">
-        <v>24609662.7</v>
+        <v>35196450.53</v>
       </c>
       <c r="W2" t="n">
-        <v>36130458.7</v>
+        <v>42655058.51</v>
       </c>
       <c r="X2" t="n">
-        <v>13691856.66</v>
+        <v>-1133302.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>225200812.13</v>
+        <v>164738619.09</v>
       </c>
       <c r="Z2" t="n">
-        <v>224678396.85</v>
+        <v>164333442.97</v>
       </c>
       <c r="AA2" t="n">
-        <v>27964438.31</v>
+        <v>20219258.56</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>2933428.76</v>
+        <v>3631764.11</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,18 +793,20 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>70.63989011850001</v>
+        <v>92.4413660454</v>
       </c>
       <c r="AQ2" t="n">
-        <v>136.062269035916</v>
+        <v>223.407545545827</v>
       </c>
       <c r="AR2" t="n">
-        <v>178.5</v>
+        <v>217.018139828705</v>
       </c>
       <c r="AS2" t="n">
-        <v>194152768.13</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>160190084.41</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>289.405555104007</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/688063.xlsx
+++ b/利润表/688063.xlsx
@@ -729,52 +729,48 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-10 00:00:00</t>
+          <t>2020-12-24 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>144114184.41</v>
+        <v>-44125029.51</v>
       </c>
       <c r="P2" t="n">
-        <v>819849198.51</v>
+        <v>143337667.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>656793789.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>79.3597808272</v>
-      </c>
+        <v>180305197.21</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>516249790.91</v>
+        <v>114323781.57</v>
       </c>
       <c r="T2" t="n">
-        <v>516249790.91</v>
-      </c>
-      <c r="U2" t="n">
-        <v>73.77720758309999</v>
-      </c>
+        <v>114323781.57</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>35196450.53</v>
+        <v>13852909.83</v>
       </c>
       <c r="W2" t="n">
-        <v>42655058.51</v>
+        <v>18249371.06</v>
       </c>
       <c r="X2" t="n">
-        <v>-1133302.1</v>
+        <v>3515562.64</v>
       </c>
       <c r="Y2" t="n">
-        <v>164738619.09</v>
+        <v>-53722201.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>164333442.97</v>
+        <v>-54081440.17</v>
       </c>
       <c r="AA2" t="n">
-        <v>20219258.56</v>
+        <v>-9956410.66</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>3631764.11</v>
+        <v>1084943.82</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,21 +788,13 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>92.4413660454</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>223.407545545827</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>217.018139828705</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>160190084.41</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>289.405555104007</v>
-      </c>
+        <v>-46503129.51</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/688063.xlsx
+++ b/利润表/688063.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,43 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-44125029.51</v>
+        <v>123530774.88</v>
       </c>
       <c r="P2" t="n">
-        <v>143337667.45</v>
+        <v>494606220.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>180305197.21</v>
+        <v>344920639.83</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>114323781.57</v>
+        <v>277012678.26</v>
       </c>
       <c r="T2" t="n">
-        <v>114323781.57</v>
+        <v>277012678.26</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>13852909.83</v>
+        <v>16430139.25</v>
       </c>
       <c r="W2" t="n">
-        <v>18249371.06</v>
+        <v>21485922.61</v>
       </c>
       <c r="X2" t="n">
-        <v>3515562.64</v>
+        <v>-1564916.87</v>
       </c>
       <c r="Y2" t="n">
-        <v>-53722201.8</v>
+        <v>141941697.98</v>
       </c>
       <c r="Z2" t="n">
-        <v>-54081440.17</v>
+        <v>141510189.61</v>
       </c>
       <c r="AA2" t="n">
-        <v>-9956410.66</v>
+        <v>17979414.73</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1084943.82</v>
+        <v>1694018.85</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,7 +792,7 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>-46503129.51</v>
+        <v>122586674.88</v>
       </c>
       <c r="AT2" t="inlineStr"/>
     </row>

--- a/利润表/688063.xlsx
+++ b/利润表/688063.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,43 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>123530774.88</v>
+        <v>-44125029.51</v>
       </c>
       <c r="P2" t="n">
-        <v>494606220.74</v>
+        <v>143337667.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>344920639.83</v>
+        <v>180305197.21</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>277012678.26</v>
+        <v>114323781.57</v>
       </c>
       <c r="T2" t="n">
-        <v>277012678.26</v>
+        <v>114323781.57</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>16430139.25</v>
+        <v>13852909.83</v>
       </c>
       <c r="W2" t="n">
-        <v>21485922.61</v>
+        <v>18249371.06</v>
       </c>
       <c r="X2" t="n">
-        <v>-1564916.87</v>
+        <v>3515562.64</v>
       </c>
       <c r="Y2" t="n">
-        <v>141941697.98</v>
+        <v>-53722201.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>141510189.61</v>
+        <v>-54081440.17</v>
       </c>
       <c r="AA2" t="n">
-        <v>17979414.73</v>
+        <v>-9956410.66</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1694018.85</v>
+        <v>1084943.82</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,7 +792,7 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>122586674.88</v>
+        <v>-46503129.51</v>
       </c>
       <c r="AT2" t="inlineStr"/>
     </row>

--- a/利润表/688063.xlsx
+++ b/利润表/688063.xlsx
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-44125029.51</v>
+        <v>45459286.49</v>
       </c>
       <c r="P2" t="n">
-        <v>143337667.45</v>
+        <v>426025451.47</v>
       </c>
       <c r="Q2" t="n">
-        <v>180305197.21</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>366187885.59</v>
+      </c>
+      <c r="R2" t="n">
+        <v>103.0933612876</v>
+      </c>
       <c r="S2" t="n">
-        <v>114323781.57</v>
+        <v>297075662.62</v>
       </c>
       <c r="T2" t="n">
-        <v>114323781.57</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>297075662.62</v>
+      </c>
+      <c r="U2" t="n">
+        <v>159.8546501352</v>
+      </c>
       <c r="V2" t="n">
-        <v>13852909.83</v>
+        <v>22308039.16</v>
       </c>
       <c r="W2" t="n">
-        <v>18249371.06</v>
+        <v>20388931.39</v>
       </c>
       <c r="X2" t="n">
-        <v>3515562.64</v>
+        <v>-1969925.65</v>
       </c>
       <c r="Y2" t="n">
-        <v>-53722201.8</v>
+        <v>50938396.88</v>
       </c>
       <c r="Z2" t="n">
-        <v>-54081440.17</v>
+        <v>50683187.23</v>
       </c>
       <c r="AA2" t="n">
-        <v>-9956410.66</v>
+        <v>5223900.74</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1084943.82</v>
+        <v>1804463.77</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -788,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>197.2180718781</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>194.818148127354</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>203.023809830422</v>
+      </c>
       <c r="AS2" t="n">
-        <v>-46503129.51</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>41137086.49</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>188.46092818582</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
